--- a/학사관리_샘플데이터/샘플-성적데이터.xlsx
+++ b/학사관리_샘플데이터/샘플-성적데이터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="성적데이터" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7399,7 +7399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C20" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
